--- a/bloomberg_data.xlsx
+++ b/bloomberg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{037DB8AF-7381-4D5E-96E9-EADE9A0A1871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC059979-B8BC-4E71-9FA3-DF353980A467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="1395" windowWidth="21600" windowHeight="11235" xr2:uid="{49B07587-6420-4892-ACF5-3F767362632D}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{49B07587-6420-4892-ACF5-3F767362632D}"/>
   </bookViews>
   <sheets>
     <sheet name="COMBINED" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Bond</t>
-  </si>
-  <si>
-    <t>Bitcoin</t>
   </si>
 </sst>
 </file>
@@ -431,7 +428,7 @@
   <dimension ref="A1:K369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K369" sqref="K369"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,9 +467,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -505,9 +500,6 @@
       <c r="J2">
         <v>55.645000000000003</v>
       </c>
-      <c r="K2">
-        <v>604.19000000000005</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -540,9 +532,6 @@
       <c r="J3">
         <v>55.44</v>
       </c>
-      <c r="K3">
-        <v>602.27</v>
-      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -575,9 +564,6 @@
       <c r="J4">
         <v>55.48</v>
       </c>
-      <c r="K4">
-        <v>608.38</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -610,9 +596,6 @@
       <c r="J5">
         <v>55.615000000000002</v>
       </c>
-      <c r="K5">
-        <v>600.16999999999996</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -645,9 +628,6 @@
       <c r="J6">
         <v>55.674999999999997</v>
       </c>
-      <c r="K6">
-        <v>609.67999999999995</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -680,9 +660,6 @@
       <c r="J7">
         <v>55.384999999999998</v>
       </c>
-      <c r="K7">
-        <v>615.66999999999996</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -715,9 +692,6 @@
       <c r="J8">
         <v>55.375</v>
       </c>
-      <c r="K8">
-        <v>640.54999999999995</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -750,9 +724,6 @@
       <c r="J9">
         <v>55.55</v>
       </c>
-      <c r="K9">
-        <v>649.47</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -785,9 +756,6 @@
       <c r="J10">
         <v>55.305</v>
       </c>
-      <c r="K10">
-        <v>699.88</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -820,9 +788,6 @@
       <c r="J11">
         <v>55.33</v>
       </c>
-      <c r="K11">
-        <v>711.15</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -855,9 +820,6 @@
       <c r="J12">
         <v>54.564999999999998</v>
       </c>
-      <c r="K12">
-        <v>704.6</v>
-      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -890,9 +852,6 @@
       <c r="J13">
         <v>54.225000000000001</v>
       </c>
-      <c r="K13">
-        <v>726.77</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -925,9 +884,6 @@
       <c r="J14">
         <v>54.174999999999997</v>
       </c>
-      <c r="K14">
-        <v>732.18</v>
-      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -960,9 +916,6 @@
       <c r="J15">
         <v>54.09</v>
       </c>
-      <c r="K15">
-        <v>764.73</v>
-      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -995,11 +948,8 @@
       <c r="J16">
         <v>54.024999999999999</v>
       </c>
-      <c r="K16">
-        <v>768.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42720</v>
       </c>
@@ -1030,11 +980,8 @@
       <c r="J17">
         <v>53.734999999999999</v>
       </c>
-      <c r="K17">
-        <v>789.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42727</v>
       </c>
@@ -1065,11 +1012,8 @@
       <c r="J18">
         <v>53.88</v>
       </c>
-      <c r="K18">
-        <v>890.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42734</v>
       </c>
@@ -1100,11 +1044,8 @@
       <c r="J19">
         <v>54.094999999999999</v>
       </c>
-      <c r="K19">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>42741</v>
       </c>
@@ -1135,11 +1076,8 @@
       <c r="J20">
         <v>54.174999999999997</v>
       </c>
-      <c r="K20">
-        <v>917.41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42748</v>
       </c>
@@ -1170,11 +1108,8 @@
       <c r="J21">
         <v>54.234999999999999</v>
       </c>
-      <c r="K21">
-        <v>822.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42755</v>
       </c>
@@ -1205,11 +1140,8 @@
       <c r="J22">
         <v>54.195</v>
       </c>
-      <c r="K22">
-        <v>920.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42762</v>
       </c>
@@ -1240,11 +1172,8 @@
       <c r="J23">
         <v>54.305</v>
       </c>
-      <c r="K23">
-        <v>917.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42769</v>
       </c>
@@ -1275,11 +1204,8 @@
       <c r="J24">
         <v>54.24</v>
       </c>
-      <c r="K24">
-        <v>1013.48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42776</v>
       </c>
@@ -1310,11 +1236,8 @@
       <c r="J25">
         <v>54.34</v>
       </c>
-      <c r="K25">
-        <v>1002.11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42783</v>
       </c>
@@ -1345,11 +1268,8 @@
       <c r="J26">
         <v>54.39</v>
       </c>
-      <c r="K26">
-        <v>1055.1199999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42790</v>
       </c>
@@ -1380,11 +1300,8 @@
       <c r="J27">
         <v>54.674999999999997</v>
       </c>
-      <c r="K27">
-        <v>1177.78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42797</v>
       </c>
@@ -1415,11 +1332,8 @@
       <c r="J28">
         <v>54.29</v>
       </c>
-      <c r="K28">
-        <v>1277.57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42804</v>
       </c>
@@ -1450,11 +1364,8 @@
       <c r="J29">
         <v>53.984999999999999</v>
       </c>
-      <c r="K29">
-        <v>1223.3900000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42811</v>
       </c>
@@ -1485,11 +1396,8 @@
       <c r="J30">
         <v>54.204999999999998</v>
       </c>
-      <c r="K30">
-        <v>1039.6400000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42818</v>
       </c>
@@ -1520,11 +1428,8 @@
       <c r="J31">
         <v>54.375</v>
       </c>
-      <c r="K31">
-        <v>974.59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>42825</v>
       </c>
@@ -1555,11 +1460,8 @@
       <c r="J32">
         <v>54.48</v>
       </c>
-      <c r="K32">
-        <v>1109.08</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42832</v>
       </c>
@@ -1590,11 +1492,8 @@
       <c r="J33">
         <v>54.42</v>
       </c>
-      <c r="K33">
-        <v>1210.1099999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>42839</v>
       </c>
@@ -1625,11 +1524,8 @@
       <c r="J34">
         <v>54.8</v>
       </c>
-      <c r="K34">
-        <v>1180.3599999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>42846</v>
       </c>
@@ -1660,11 +1556,8 @@
       <c r="J35">
         <v>54.81</v>
       </c>
-      <c r="K35">
-        <v>1245.74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>42853</v>
       </c>
@@ -1695,11 +1588,8 @@
       <c r="J36">
         <v>54.8</v>
       </c>
-      <c r="K36">
-        <v>1356.03</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>42860</v>
       </c>
@@ -1730,11 +1620,8 @@
       <c r="J37">
         <v>54.575000000000003</v>
       </c>
-      <c r="K37">
-        <v>1556.06</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>42867</v>
       </c>
@@ -1765,11 +1652,8 @@
       <c r="J38">
         <v>54.77</v>
       </c>
-      <c r="K38">
-        <v>1790.31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>42874</v>
       </c>
@@ -1800,11 +1684,8 @@
       <c r="J39">
         <v>54.95</v>
       </c>
-      <c r="K39">
-        <v>2011.23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>42881</v>
       </c>
@@ -1835,11 +1716,8 @@
       <c r="J40">
         <v>54.924999999999997</v>
       </c>
-      <c r="K40">
-        <v>2118.7600000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42888</v>
       </c>
@@ -1870,11 +1748,8 @@
       <c r="J41">
         <v>55.015000000000001</v>
       </c>
-      <c r="K41">
-        <v>2504.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42895</v>
       </c>
@@ -1905,11 +1780,8 @@
       <c r="J42">
         <v>54.93</v>
       </c>
-      <c r="K42">
-        <v>2922.82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42902</v>
       </c>
@@ -1940,11 +1812,8 @@
       <c r="J43">
         <v>55.064999999999998</v>
       </c>
-      <c r="K43">
-        <v>2471.5500000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42909</v>
       </c>
@@ -1975,11 +1844,8 @@
       <c r="J44">
         <v>55.05</v>
       </c>
-      <c r="K44">
-        <v>2472.48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42916</v>
       </c>
@@ -2010,11 +1876,8 @@
       <c r="J45">
         <v>54.89</v>
       </c>
-      <c r="K45">
-        <v>2497.65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42923</v>
       </c>
@@ -2045,11 +1908,8 @@
       <c r="J46">
         <v>54.64</v>
       </c>
-      <c r="K46">
-        <v>2527.9699999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>42930</v>
       </c>
@@ -2080,11 +1940,8 @@
       <c r="J47">
         <v>54.88</v>
       </c>
-      <c r="K47">
-        <v>1865.67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>42937</v>
       </c>
@@ -2115,11 +1972,8 @@
       <c r="J48">
         <v>55.094999999999999</v>
       </c>
-      <c r="K48">
-        <v>2785</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>42944</v>
       </c>
@@ -2150,11 +2004,8 @@
       <c r="J49">
         <v>55.125</v>
       </c>
-      <c r="K49">
-        <v>2717.71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>42951</v>
       </c>
@@ -2185,11 +2036,8 @@
       <c r="J50">
         <v>55.015000000000001</v>
       </c>
-      <c r="K50">
-        <v>3265.55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>42958</v>
       </c>
@@ -2220,11 +2068,8 @@
       <c r="J51">
         <v>55.064999999999998</v>
       </c>
-      <c r="K51">
-        <v>4010.46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>42965</v>
       </c>
@@ -2255,11 +2100,8 @@
       <c r="J52">
         <v>55.094999999999999</v>
       </c>
-      <c r="K52">
-        <v>4124.91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>42972</v>
       </c>
@@ -2290,11 +2132,8 @@
       <c r="J53">
         <v>55.2</v>
       </c>
-      <c r="K53">
-        <v>4362.8500000000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>42979</v>
       </c>
@@ -2325,11 +2164,8 @@
       <c r="J54">
         <v>55.11</v>
       </c>
-      <c r="K54">
-        <v>4580.9799999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>42986</v>
       </c>
@@ -2360,11 +2196,8 @@
       <c r="J55">
         <v>55.335000000000001</v>
       </c>
-      <c r="K55">
-        <v>4289.22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>42993</v>
       </c>
@@ -2395,11 +2228,8 @@
       <c r="J56">
         <v>55.12</v>
       </c>
-      <c r="K56">
-        <v>3747.8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43000</v>
       </c>
@@ -2430,11 +2260,8 @@
       <c r="J57">
         <v>55.055</v>
       </c>
-      <c r="K57">
-        <v>3669.78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43007</v>
       </c>
@@ -2465,11 +2292,8 @@
       <c r="J58">
         <v>55.08</v>
       </c>
-      <c r="K58">
-        <v>4335.84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43014</v>
       </c>
@@ -2500,11 +2324,8 @@
       <c r="J59">
         <v>54.94</v>
       </c>
-      <c r="K59">
-        <v>4583.01</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43021</v>
       </c>
@@ -2535,11 +2356,8 @@
       <c r="J60">
         <v>55.094999999999999</v>
       </c>
-      <c r="K60">
-        <v>5524.56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43028</v>
       </c>
@@ -2570,11 +2388,8 @@
       <c r="J61">
         <v>54.935000000000002</v>
       </c>
-      <c r="K61">
-        <v>5881.65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43035</v>
       </c>
@@ -2605,11 +2420,8 @@
       <c r="J62">
         <v>54.93</v>
       </c>
-      <c r="K62">
-        <v>6176.91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43042</v>
       </c>
@@ -2640,11 +2452,8 @@
       <c r="J63">
         <v>54.914999999999999</v>
       </c>
-      <c r="K63">
-        <v>7369.78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43049</v>
       </c>
@@ -2675,11 +2484,8 @@
       <c r="J64">
         <v>54.674999999999997</v>
       </c>
-      <c r="K64">
-        <v>5893.08</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43056</v>
       </c>
@@ -2710,11 +2516,8 @@
       <c r="J65">
         <v>54.715000000000003</v>
       </c>
-      <c r="K65">
-        <v>8019.16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43063</v>
       </c>
@@ -2745,11 +2548,8 @@
       <c r="J66">
         <v>54.814999999999998</v>
       </c>
-      <c r="K66">
-        <v>8134.25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43070</v>
       </c>
@@ -2780,11 +2580,8 @@
       <c r="J67">
         <v>54.674999999999997</v>
       </c>
-      <c r="K67">
-        <v>10930.29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43077</v>
       </c>
@@ -2815,11 +2612,8 @@
       <c r="J68">
         <v>54.67</v>
       </c>
-      <c r="K68">
-        <v>14705.41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43084</v>
       </c>
@@ -2850,11 +2644,8 @@
       <c r="J69">
         <v>54.725000000000001</v>
       </c>
-      <c r="K69">
-        <v>19041.63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43091</v>
       </c>
@@ -2885,11 +2676,8 @@
       <c r="J70">
         <v>54.46</v>
       </c>
-      <c r="K70">
-        <v>13147.99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43098</v>
       </c>
@@ -2920,11 +2708,8 @@
       <c r="J71">
         <v>54.604999999999997</v>
       </c>
-      <c r="K71">
-        <v>14043.06</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43105</v>
       </c>
@@ -2955,11 +2740,8 @@
       <c r="J72">
         <v>54.49</v>
       </c>
-      <c r="K72">
-        <v>16200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43112</v>
       </c>
@@ -2990,11 +2772,8 @@
       <c r="J73">
         <v>54.465000000000003</v>
       </c>
-      <c r="K73">
-        <v>13383.28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43119</v>
       </c>
@@ -3025,11 +2804,8 @@
       <c r="J74">
         <v>54.21</v>
       </c>
-      <c r="K74">
-        <v>11366.62</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43126</v>
       </c>
@@ -3060,11 +2836,8 @@
       <c r="J75">
         <v>54.325000000000003</v>
       </c>
-      <c r="K75">
-        <v>11755.16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43133</v>
       </c>
@@ -3095,11 +2868,8 @@
       <c r="J76">
         <v>53.884999999999998</v>
       </c>
-      <c r="K76">
-        <v>8077.39</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43140</v>
       </c>
@@ -3130,11 +2900,8 @@
       <c r="J77">
         <v>53.78</v>
       </c>
-      <c r="K77">
-        <v>8315.1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43147</v>
       </c>
@@ -3165,11 +2932,8 @@
       <c r="J78">
         <v>53.71</v>
       </c>
-      <c r="K78">
-        <v>10784.81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43154</v>
       </c>
@@ -3200,11 +2964,8 @@
       <c r="J79">
         <v>53.685000000000002</v>
       </c>
-      <c r="K79">
-        <v>9596.64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43161</v>
       </c>
@@ -3235,11 +2996,8 @@
       <c r="J80">
         <v>53.49</v>
       </c>
-      <c r="K80">
-        <v>11400.19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43168</v>
       </c>
@@ -3270,11 +3028,8 @@
       <c r="J81">
         <v>53.465000000000003</v>
       </c>
-      <c r="K81">
-        <v>9613.9500000000007</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43175</v>
       </c>
@@ -3305,11 +3060,8 @@
       <c r="J82">
         <v>53.48</v>
       </c>
-      <c r="K82">
-        <v>7655.03</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43182</v>
       </c>
@@ -3340,11 +3092,8 @@
       <c r="J83">
         <v>53.384999999999998</v>
       </c>
-      <c r="K83">
-        <v>8605.14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43189</v>
       </c>
@@ -3375,11 +3124,8 @@
       <c r="J84">
         <v>53.62</v>
       </c>
-      <c r="K84">
-        <v>6890.64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43196</v>
       </c>
@@ -3410,11 +3156,8 @@
       <c r="J85">
         <v>53.494999999999997</v>
       </c>
-      <c r="K85">
-        <v>6955.33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43203</v>
       </c>
@@ -3445,11 +3188,8 @@
       <c r="J86">
         <v>53.45</v>
       </c>
-      <c r="K86">
-        <v>8287.52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43210</v>
       </c>
@@ -3480,11 +3220,8 @@
       <c r="J87">
         <v>53.234999999999999</v>
       </c>
-      <c r="K87">
-        <v>8893.0400000000009</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43217</v>
       </c>
@@ -3515,11 +3252,8 @@
       <c r="J88">
         <v>53.164999999999999</v>
       </c>
-      <c r="K88">
-        <v>9295.7800000000007</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43224</v>
       </c>
@@ -3550,11 +3284,8 @@
       <c r="J89">
         <v>53.085000000000001</v>
       </c>
-      <c r="K89">
-        <v>9514.36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43231</v>
       </c>
@@ -3585,11 +3316,8 @@
       <c r="J90">
         <v>53.08</v>
       </c>
-      <c r="K90">
-        <v>8714.52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43238</v>
       </c>
@@ -3620,11 +3348,8 @@
       <c r="J91">
         <v>52.98</v>
       </c>
-      <c r="K91">
-        <v>8554.5499999999993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43245</v>
       </c>
@@ -3655,11 +3380,8 @@
       <c r="J92">
         <v>53.26</v>
       </c>
-      <c r="K92">
-        <v>7314.74</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43252</v>
       </c>
@@ -3690,11 +3412,8 @@
       <c r="J93">
         <v>53.18</v>
       </c>
-      <c r="K93">
-        <v>7724.98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43259</v>
       </c>
@@ -3725,11 +3444,8 @@
       <c r="J94">
         <v>53.034999999999997</v>
       </c>
-      <c r="K94">
-        <v>6710.06</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43266</v>
       </c>
@@ -3760,11 +3476,8 @@
       <c r="J95">
         <v>53.08</v>
       </c>
-      <c r="K95">
-        <v>6491</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43273</v>
       </c>
@@ -3795,11 +3508,8 @@
       <c r="J96">
         <v>53.024999999999999</v>
       </c>
-      <c r="K96">
-        <v>6189.28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43280</v>
       </c>
@@ -3830,11 +3540,8 @@
       <c r="J97">
         <v>53.12</v>
       </c>
-      <c r="K97">
-        <v>6348.59</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43287</v>
       </c>
@@ -3865,11 +3572,8 @@
       <c r="J98">
         <v>53.17</v>
       </c>
-      <c r="K98">
-        <v>6743</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43294</v>
       </c>
@@ -3900,11 +3604,8 @@
       <c r="J99">
         <v>53.295000000000002</v>
       </c>
-      <c r="K99">
-        <v>6372.23</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43301</v>
       </c>
@@ -3935,11 +3636,8 @@
       <c r="J100">
         <v>53.255000000000003</v>
       </c>
-      <c r="K100">
-        <v>7523.48</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43308</v>
       </c>
@@ -3970,11 +3668,8 @@
       <c r="J101">
         <v>53.32</v>
       </c>
-      <c r="K101">
-        <v>8193.4699999999993</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43315</v>
       </c>
@@ -4005,11 +3700,8 @@
       <c r="J102">
         <v>53.265000000000001</v>
       </c>
-      <c r="K102">
-        <v>7049.57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43322</v>
       </c>
@@ -4040,11 +3732,8 @@
       <c r="J103">
         <v>53.28</v>
       </c>
-      <c r="K103">
-        <v>6339.47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43329</v>
       </c>
@@ -4075,11 +3764,8 @@
       <c r="J104">
         <v>53.43</v>
       </c>
-      <c r="K104">
-        <v>6536.55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43336</v>
       </c>
@@ -4110,11 +3796,8 @@
       <c r="J105">
         <v>53.58</v>
       </c>
-      <c r="K105">
-        <v>6678.58</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43343</v>
       </c>
@@ -4145,11 +3828,8 @@
       <c r="J106">
         <v>53.44</v>
       </c>
-      <c r="K106">
-        <v>7280.88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43350</v>
       </c>
@@ -4180,11 +3860,8 @@
       <c r="J107">
         <v>53.11</v>
       </c>
-      <c r="K107">
-        <v>6386.93</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43357</v>
       </c>
@@ -4215,11 +3892,8 @@
       <c r="J108">
         <v>53.13</v>
       </c>
-      <c r="K108">
-        <v>6500.09</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43364</v>
       </c>
@@ -4250,11 +3924,8 @@
       <c r="J109">
         <v>52.97</v>
       </c>
-      <c r="K109">
-        <v>6676.59</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43371</v>
       </c>
@@ -4285,11 +3956,8 @@
       <c r="J110">
         <v>53.1</v>
       </c>
-      <c r="K110">
-        <v>6561.3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43378</v>
       </c>
@@ -4320,11 +3988,8 @@
       <c r="J111">
         <v>52.42</v>
       </c>
-      <c r="K111">
-        <v>6532.65</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43385</v>
       </c>
@@ -4355,11 +4020,8 @@
       <c r="J112">
         <v>52.53</v>
       </c>
-      <c r="K112">
-        <v>6217.26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43392</v>
       </c>
@@ -4390,11 +4052,8 @@
       <c r="J113">
         <v>52.39</v>
       </c>
-      <c r="K113">
-        <v>6438.3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43399</v>
       </c>
@@ -4425,11 +4084,8 @@
       <c r="J114">
         <v>52.61</v>
       </c>
-      <c r="K114">
-        <v>6395.61</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43406</v>
       </c>
@@ -4460,11 +4116,8 @@
       <c r="J115">
         <v>52.13</v>
       </c>
-      <c r="K115">
-        <v>6413.12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43413</v>
       </c>
@@ -4495,11 +4148,8 @@
       <c r="J116">
         <v>52.22</v>
       </c>
-      <c r="K116">
-        <v>6314.2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43420</v>
       </c>
@@ -4530,11 +4180,8 @@
       <c r="J117">
         <v>52.19</v>
       </c>
-      <c r="K117">
-        <v>5543.73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43427</v>
       </c>
@@ -4565,11 +4212,8 @@
       <c r="J118">
         <v>52.11</v>
       </c>
-      <c r="K118">
-        <v>4048.03</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43434</v>
       </c>
@@ -4600,11 +4244,8 @@
       <c r="J119">
         <v>52.15</v>
       </c>
-      <c r="K119">
-        <v>4148.09</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43441</v>
       </c>
@@ -4635,11 +4276,8 @@
       <c r="J120">
         <v>52.18</v>
       </c>
-      <c r="K120">
-        <v>3526.26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43448</v>
       </c>
@@ -4670,11 +4308,8 @@
       <c r="J121">
         <v>52.32</v>
       </c>
-      <c r="K121">
-        <v>3203.6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43455</v>
       </c>
@@ -4705,11 +4340,8 @@
       <c r="J122">
         <v>52.19</v>
       </c>
-      <c r="K122">
-        <v>3848.6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43462</v>
       </c>
@@ -4740,11 +4372,8 @@
       <c r="J123">
         <v>52.33</v>
       </c>
-      <c r="K123">
-        <v>3821.31</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43469</v>
       </c>
@@ -4775,11 +4404,8 @@
       <c r="J124">
         <v>52.54</v>
       </c>
-      <c r="K124">
-        <v>4031.29</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43476</v>
       </c>
@@ -4810,11 +4436,8 @@
       <c r="J125">
         <v>52.85</v>
       </c>
-      <c r="K125">
-        <v>3516.03</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43483</v>
       </c>
@@ -4845,11 +4468,8 @@
       <c r="J126">
         <v>53.03</v>
       </c>
-      <c r="K126">
-        <v>3538.45</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43490</v>
       </c>
@@ -4880,11 +4500,8 @@
       <c r="J127">
         <v>53.35</v>
       </c>
-      <c r="K127">
-        <v>3541.27</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43497</v>
       </c>
@@ -4915,11 +4532,8 @@
       <c r="J128">
         <v>53.66</v>
       </c>
-      <c r="K128">
-        <v>3395.68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43504</v>
       </c>
@@ -4950,11 +4564,8 @@
       <c r="J129">
         <v>53.82</v>
       </c>
-      <c r="K129">
-        <v>3605.5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43511</v>
       </c>
@@ -4985,11 +4596,8 @@
       <c r="J130">
         <v>53.85</v>
       </c>
-      <c r="K130">
-        <v>3585.56</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43518</v>
       </c>
@@ -5020,11 +4628,8 @@
       <c r="J131">
         <v>53.97</v>
       </c>
-      <c r="K131">
-        <v>3787.61</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43525</v>
       </c>
@@ -5055,11 +4660,8 @@
       <c r="J132">
         <v>53.72</v>
       </c>
-      <c r="K132">
-        <v>3788.98</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43532</v>
       </c>
@@ -5090,11 +4692,8 @@
       <c r="J133">
         <v>54.02</v>
       </c>
-      <c r="K133">
-        <v>3896.7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43539</v>
       </c>
@@ -5125,11 +4724,8 @@
       <c r="J134">
         <v>54.35</v>
       </c>
-      <c r="K134">
-        <v>3975.48</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43546</v>
       </c>
@@ -5160,11 +4756,8 @@
       <c r="J135">
         <v>54.9</v>
       </c>
-      <c r="K135">
-        <v>3958.02</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43553</v>
       </c>
@@ -5195,11 +4788,8 @@
       <c r="J136">
         <v>55.14</v>
       </c>
-      <c r="K136">
-        <v>4092.97</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43560</v>
       </c>
@@ -5230,11 +4820,8 @@
       <c r="J137">
         <v>54.84</v>
       </c>
-      <c r="K137">
-        <v>5142.9399999999996</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43567</v>
       </c>
@@ -5265,11 +4852,8 @@
       <c r="J138">
         <v>55.02</v>
       </c>
-      <c r="K138">
-        <v>5089.29</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43574</v>
       </c>
@@ -5300,11 +4884,8 @@
       <c r="J139">
         <v>54.92</v>
       </c>
-      <c r="K139">
-        <v>5239.3599999999997</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43581</v>
       </c>
@@ -5335,11 +4916,8 @@
       <c r="J140">
         <v>55.26</v>
       </c>
-      <c r="K140">
-        <v>5129.43</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43588</v>
       </c>
@@ -5370,11 +4948,8 @@
       <c r="J141">
         <v>55</v>
       </c>
-      <c r="K141">
-        <v>5767.57</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43595</v>
       </c>
@@ -5405,11 +4980,8 @@
       <c r="J142">
         <v>55.1</v>
       </c>
-      <c r="K142">
-        <v>7172.67</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43602</v>
       </c>
@@ -5440,11 +5012,8 @@
       <c r="J143">
         <v>55.24</v>
       </c>
-      <c r="K143">
-        <v>7106.31</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43609</v>
       </c>
@@ -5475,11 +5044,8 @@
       <c r="J144">
         <v>55.42</v>
       </c>
-      <c r="K144">
-        <v>8582.0400000000009</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43616</v>
       </c>
@@ -5510,11 +5076,8 @@
       <c r="J145">
         <v>55.78</v>
       </c>
-      <c r="K145">
-        <v>8687.43</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43623</v>
       </c>
@@ -5545,11 +5108,8 @@
       <c r="J146">
         <v>56.04</v>
       </c>
-      <c r="K146">
-        <v>7718.88</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43630</v>
       </c>
@@ -5580,11 +5140,8 @@
       <c r="J147">
         <v>56.15</v>
       </c>
-      <c r="K147">
-        <v>8932.64</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43637</v>
       </c>
@@ -5615,11 +5172,8 @@
       <c r="J148">
         <v>56.72</v>
       </c>
-      <c r="K148">
-        <v>9939.81</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>43644</v>
       </c>
@@ -5650,11 +5204,8 @@
       <c r="J149">
         <v>56.95</v>
       </c>
-      <c r="K149">
-        <v>11392.98</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>43651</v>
       </c>
@@ -5685,11 +5236,8 @@
       <c r="J150">
         <v>56.76</v>
       </c>
-      <c r="K150">
-        <v>11507.39</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>43658</v>
       </c>
@@ -5720,11 +5268,8 @@
       <c r="J151">
         <v>56.58</v>
       </c>
-      <c r="K151">
-        <v>10641.23</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>43665</v>
       </c>
@@ -5755,11 +5300,8 @@
       <c r="J152">
         <v>56.79</v>
       </c>
-      <c r="K152">
-        <v>10504.08</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>43672</v>
       </c>
@@ -5790,11 +5332,8 @@
       <c r="J153">
         <v>56.92</v>
       </c>
-      <c r="K153">
-        <v>9834.23</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>43679</v>
       </c>
@@ -5825,11 +5364,8 @@
       <c r="J154">
         <v>57.32</v>
       </c>
-      <c r="K154">
-        <v>10945.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>43686</v>
       </c>
@@ -5860,11 +5396,8 @@
       <c r="J155">
         <v>57.52</v>
       </c>
-      <c r="K155">
-        <v>11409.65</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>43693</v>
       </c>
@@ -5895,11 +5428,8 @@
       <c r="J156">
         <v>57.95</v>
       </c>
-      <c r="K156">
-        <v>10363.709999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>43700</v>
       </c>
@@ -5930,11 +5460,8 @@
       <c r="J157">
         <v>58.2</v>
       </c>
-      <c r="K157">
-        <v>9998.2199999999993</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>43707</v>
       </c>
@@ -5965,11 +5492,8 @@
       <c r="J158">
         <v>58.29</v>
       </c>
-      <c r="K158">
-        <v>9638.82</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>43714</v>
       </c>
@@ -6000,11 +5524,8 @@
       <c r="J159">
         <v>58.11</v>
       </c>
-      <c r="K159">
-        <v>10366.700000000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>43721</v>
       </c>
@@ -6035,11 +5556,8 @@
       <c r="J160">
         <v>57.12</v>
       </c>
-      <c r="K160">
-        <v>10275.780000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>43728</v>
       </c>
@@ -6070,11 +5588,8 @@
       <c r="J161">
         <v>57.69</v>
       </c>
-      <c r="K161">
-        <v>10008.799999999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>43735</v>
       </c>
@@ -6105,11 +5620,8 @@
       <c r="J162">
         <v>57.84</v>
       </c>
-      <c r="K162">
-        <v>8013.75</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>43742</v>
       </c>
@@ -6140,11 +5652,8 @@
       <c r="J163">
         <v>58.27</v>
       </c>
-      <c r="K163">
-        <v>8161.33</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>43749</v>
       </c>
@@ -6175,11 +5684,8 @@
       <c r="J164">
         <v>57.66</v>
       </c>
-      <c r="K164">
-        <v>8263.34</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>43756</v>
       </c>
@@ -6210,11 +5716,8 @@
       <c r="J165">
         <v>57.86</v>
       </c>
-      <c r="K165">
-        <v>8226.5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>43763</v>
       </c>
@@ -6245,11 +5748,8 @@
       <c r="J166">
         <v>57.87</v>
       </c>
-      <c r="K166">
-        <v>9623.68</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>43770</v>
       </c>
@@ -6280,11 +5780,8 @@
       <c r="J167">
         <v>58</v>
       </c>
-      <c r="K167">
-        <v>9157.7000000000007</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>43777</v>
       </c>
@@ -6315,11 +5812,8 @@
       <c r="J168">
         <v>57.47</v>
       </c>
-      <c r="K168">
-        <v>9042.0499999999993</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>43784</v>
       </c>
@@ -6350,11 +5844,8 @@
       <c r="J169">
         <v>57.78</v>
       </c>
-      <c r="K169">
-        <v>8555.3799999999992</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>43791</v>
       </c>
@@ -6385,11 +5876,8 @@
       <c r="J170">
         <v>57.96</v>
       </c>
-      <c r="K170">
-        <v>7050</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>43798</v>
       </c>
@@ -6420,11 +5908,8 @@
       <c r="J171">
         <v>58.03</v>
       </c>
-      <c r="K171">
-        <v>7381.45</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>43805</v>
       </c>
@@ -6455,11 +5940,8 @@
       <c r="J172">
         <v>57.9</v>
       </c>
-      <c r="K172">
-        <v>7546.9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>43812</v>
       </c>
@@ -6490,11 +5972,8 @@
       <c r="J173">
         <v>58.11</v>
       </c>
-      <c r="K173">
-        <v>7120.76</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>43819</v>
       </c>
@@ -6525,11 +6004,8 @@
       <c r="J174">
         <v>57.85</v>
       </c>
-      <c r="K174">
-        <v>7407.05</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>43826</v>
       </c>
@@ -6560,11 +6036,8 @@
       <c r="J175">
         <v>58.07</v>
       </c>
-      <c r="K175">
-        <v>7388.48</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>43833</v>
       </c>
@@ -6595,11 +6068,8 @@
       <c r="J176">
         <v>58.32</v>
       </c>
-      <c r="K176">
-        <v>7363.55</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>43840</v>
       </c>
@@ -6630,11 +6100,8 @@
       <c r="J177">
         <v>58.305</v>
       </c>
-      <c r="K177">
-        <v>8099.1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>43847</v>
       </c>
@@ -6665,11 +6132,8 @@
       <c r="J178">
         <v>58.39</v>
       </c>
-      <c r="K178">
-        <v>8718.75</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>43854</v>
       </c>
@@ -6700,11 +6164,8 @@
       <c r="J179">
         <v>58.79</v>
       </c>
-      <c r="K179">
-        <v>8406.0499999999993</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>43861</v>
       </c>
@@ -6735,11 +6196,8 @@
       <c r="J180">
         <v>59.25</v>
       </c>
-      <c r="K180">
-        <v>9443.43</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>43868</v>
       </c>
@@ -6770,11 +6228,8 @@
       <c r="J181">
         <v>59.03</v>
       </c>
-      <c r="K181">
-        <v>10077.629999999999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>43875</v>
       </c>
@@ -6805,11 +6260,8 @@
       <c r="J182">
         <v>59.12</v>
       </c>
-      <c r="K182">
-        <v>9773.09</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>43882</v>
       </c>
@@ -6840,11 +6292,8 @@
       <c r="J183">
         <v>59.4</v>
       </c>
-      <c r="K183">
-        <v>9885.42</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>43889</v>
       </c>
@@ -6875,11 +6324,8 @@
       <c r="J184">
         <v>59.78</v>
       </c>
-      <c r="K184">
-        <v>8512.5400000000009</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>43896</v>
       </c>
@@ -6910,11 +6356,8 @@
       <c r="J185">
         <v>60.13</v>
       </c>
-      <c r="K185">
-        <v>8079.07</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>43903</v>
       </c>
@@ -6945,11 +6388,8 @@
       <c r="J186">
         <v>56.27</v>
       </c>
-      <c r="K186">
-        <v>5177.49</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>43910</v>
       </c>
@@ -6980,11 +6420,8 @@
       <c r="J187">
         <v>50.43</v>
       </c>
-      <c r="K187">
-        <v>5937.7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>43917</v>
       </c>
@@ -7015,11 +6452,8 @@
       <c r="J188">
         <v>54.48</v>
       </c>
-      <c r="K188">
-        <v>5949.89</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>43924</v>
       </c>
@@ -7050,11 +6484,8 @@
       <c r="J189">
         <v>54.4</v>
       </c>
-      <c r="K189">
-        <v>6761.43</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>43931</v>
       </c>
@@ -7085,11 +6516,8 @@
       <c r="J190">
         <v>57.25</v>
       </c>
-      <c r="K190">
-        <v>7122.4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>43938</v>
       </c>
@@ -7120,11 +6548,8 @@
       <c r="J191">
         <v>57.62</v>
       </c>
-      <c r="K191">
-        <v>7150.37</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>43945</v>
       </c>
@@ -7155,11 +6580,8 @@
       <c r="J192">
         <v>57.68</v>
       </c>
-      <c r="K192">
-        <v>7651.93</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>43952</v>
       </c>
@@ -7190,11 +6612,8 @@
       <c r="J193">
         <v>57.46</v>
       </c>
-      <c r="K193">
-        <v>8848.36</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>43959</v>
       </c>
@@ -7225,11 +6644,8 @@
       <c r="J194">
         <v>57.41</v>
       </c>
-      <c r="K194">
-        <v>8675.2900000000009</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>43966</v>
       </c>
@@ -7260,11 +6676,8 @@
       <c r="J195">
         <v>57.92</v>
       </c>
-      <c r="K195">
-        <v>9738.7999999999993</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>43973</v>
       </c>
@@ -7295,11 +6708,8 @@
       <c r="J196">
         <v>58.65</v>
       </c>
-      <c r="K196">
-        <v>9001.5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>43980</v>
       </c>
@@ -7330,11 +6740,8 @@
       <c r="J197">
         <v>59.23</v>
       </c>
-      <c r="K197">
-        <v>9505.3799999999992</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>43987</v>
       </c>
@@ -7365,11 +6772,8 @@
       <c r="J198">
         <v>59.38</v>
       </c>
-      <c r="K198">
-        <v>9732.43</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>43994</v>
       </c>
@@ -7400,11 +6804,8 @@
       <c r="J199">
         <v>59.68</v>
       </c>
-      <c r="K199">
-        <v>9382.0499999999993</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44001</v>
       </c>
@@ -7435,11 +6836,8 @@
       <c r="J200">
         <v>60.18</v>
       </c>
-      <c r="K200">
-        <v>9310.9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44008</v>
       </c>
@@ -7470,11 +6868,8 @@
       <c r="J201">
         <v>60</v>
       </c>
-      <c r="K201">
-        <v>9109.76</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44015</v>
       </c>
@@ -7505,11 +6900,8 @@
       <c r="J202">
         <v>60.32</v>
       </c>
-      <c r="K202">
-        <v>9013.9599999999991</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44022</v>
       </c>
@@ -7540,11 +6932,8 @@
       <c r="J203">
         <v>60.5</v>
       </c>
-      <c r="K203">
-        <v>9232.34</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44029</v>
       </c>
@@ -7575,11 +6964,8 @@
       <c r="J204">
         <v>60.91</v>
       </c>
-      <c r="K204">
-        <v>9171.94</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44036</v>
       </c>
@@ -7610,11 +6996,8 @@
       <c r="J205">
         <v>61.09</v>
       </c>
-      <c r="K205">
-        <v>9895.6299999999992</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44043</v>
       </c>
@@ -7645,11 +7028,8 @@
       <c r="J206">
         <v>61.39</v>
       </c>
-      <c r="K206">
-        <v>11090.63</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44050</v>
       </c>
@@ -7680,11 +7060,8 @@
       <c r="J207">
         <v>61.51</v>
       </c>
-      <c r="K207">
-        <v>11679.9</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44057</v>
       </c>
@@ -7715,11 +7092,8 @@
       <c r="J208">
         <v>60.85</v>
       </c>
-      <c r="K208">
-        <v>11849.5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44064</v>
       </c>
@@ -7750,11 +7124,8 @@
       <c r="J209">
         <v>61.19</v>
       </c>
-      <c r="K209">
-        <v>11669.22</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44071</v>
       </c>
@@ -7785,11 +7156,8 @@
       <c r="J210">
         <v>61.02</v>
       </c>
-      <c r="K210">
-        <v>11640.79</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44078</v>
       </c>
@@ -7820,11 +7188,8 @@
       <c r="J211">
         <v>60.96</v>
       </c>
-      <c r="K211">
-        <v>10236.790000000001</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44085</v>
       </c>
@@ -7855,11 +7220,8 @@
       <c r="J212">
         <v>61.06</v>
       </c>
-      <c r="K212">
-        <v>10318.18</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44092</v>
       </c>
@@ -7890,11 +7252,8 @@
       <c r="J213">
         <v>61.11</v>
       </c>
-      <c r="K213">
-        <v>10858</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44099</v>
       </c>
@@ -7925,11 +7284,8 @@
       <c r="J214">
         <v>60.68</v>
       </c>
-      <c r="K214">
-        <v>10725.25</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44106</v>
       </c>
@@ -7960,11 +7316,8 @@
       <c r="J215">
         <v>60.83</v>
       </c>
-      <c r="K215">
-        <v>10650.02</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44113</v>
       </c>
@@ -7995,11 +7348,8 @@
       <c r="J216">
         <v>60.88</v>
       </c>
-      <c r="K216">
-        <v>11332.36</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44120</v>
       </c>
@@ -8030,11 +7380,8 @@
       <c r="J217">
         <v>60.93</v>
       </c>
-      <c r="K217">
-        <v>11445.83</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44127</v>
       </c>
@@ -8065,11 +7412,8 @@
       <c r="J218">
         <v>60.84</v>
       </c>
-      <c r="K218">
-        <v>13036.88</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44134</v>
       </c>
@@ -8100,11 +7444,8 @@
       <c r="J219">
         <v>60.56</v>
       </c>
-      <c r="K219">
-        <v>13823.15</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44141</v>
       </c>
@@ -8135,11 +7476,8 @@
       <c r="J220">
         <v>61.08</v>
       </c>
-      <c r="K220">
-        <v>15342.02</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44148</v>
       </c>
@@ -8170,11 +7508,8 @@
       <c r="J221">
         <v>61.045000000000002</v>
       </c>
-      <c r="K221">
-        <v>15857.79</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44155</v>
       </c>
@@ -8205,11 +7540,8 @@
       <c r="J222">
         <v>61.39</v>
       </c>
-      <c r="K222">
-        <v>18597.77</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44162</v>
       </c>
@@ -8240,11 +7572,8 @@
       <c r="J223">
         <v>61.57</v>
       </c>
-      <c r="K223">
-        <v>18270.66</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44169</v>
       </c>
@@ -8275,11 +7604,8 @@
       <c r="J224">
         <v>61.36</v>
       </c>
-      <c r="K224">
-        <v>19248.349999999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44176</v>
       </c>
@@ -8310,11 +7636,8 @@
       <c r="J225">
         <v>61.47</v>
       </c>
-      <c r="K225">
-        <v>19178.3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44183</v>
       </c>
@@ -8345,11 +7668,8 @@
       <c r="J226">
         <v>61.43</v>
       </c>
-      <c r="K226">
-        <v>23385.77</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44190</v>
       </c>
@@ -8380,11 +7700,8 @@
       <c r="J227">
         <v>61.65</v>
       </c>
-      <c r="K227">
-        <v>26385.71</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44197</v>
       </c>
@@ -8415,11 +7732,8 @@
       <c r="J228">
         <v>61.79</v>
       </c>
-      <c r="K228">
-        <v>33591.730000000003</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44204</v>
       </c>
@@ -8450,11 +7764,8 @@
       <c r="J229">
         <v>61.25</v>
       </c>
-      <c r="K229">
-        <v>38048.82</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44211</v>
       </c>
@@ -8485,11 +7796,8 @@
       <c r="J230">
         <v>61.35</v>
       </c>
-      <c r="K230">
-        <v>36533.949999999997</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44218</v>
       </c>
@@ -8520,11 +7828,8 @@
       <c r="J231">
         <v>61.32</v>
       </c>
-      <c r="K231">
-        <v>31932.47</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44225</v>
       </c>
@@ -8555,11 +7860,8 @@
       <c r="J232">
         <v>61.29</v>
       </c>
-      <c r="K232">
-        <v>32601.26</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44232</v>
       </c>
@@ -8590,11 +7892,8 @@
       <c r="J233">
         <v>61.21</v>
       </c>
-      <c r="K233">
-        <v>38590.04</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44239</v>
       </c>
@@ -8625,11 +7924,8 @@
       <c r="J234">
         <v>61.2</v>
       </c>
-      <c r="K234">
-        <v>48865.24</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44246</v>
       </c>
@@ -8660,11 +7956,8 @@
       <c r="J235">
         <v>60.71</v>
       </c>
-      <c r="K235">
-        <v>57355.29</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44253</v>
       </c>
@@ -8695,11 +7988,8 @@
       <c r="J236">
         <v>60.22</v>
       </c>
-      <c r="K236">
-        <v>45248.24</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44260</v>
       </c>
@@ -8730,11 +8020,8 @@
       <c r="J237">
         <v>59.48</v>
       </c>
-      <c r="K237">
-        <v>50107.87</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44267</v>
       </c>
@@ -8765,11 +8052,8 @@
       <c r="J238">
         <v>59.16</v>
       </c>
-      <c r="K238">
-        <v>60273.94</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44274</v>
       </c>
@@ -8800,11 +8084,8 @@
       <c r="J239">
         <v>58.97</v>
       </c>
-      <c r="K239">
-        <v>57813.39</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44281</v>
       </c>
@@ -8835,11 +8116,8 @@
       <c r="J240">
         <v>59.26</v>
       </c>
-      <c r="K240">
-        <v>54845.71</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44288</v>
       </c>
@@ -8870,11 +8148,8 @@
       <c r="J241">
         <v>59.27</v>
       </c>
-      <c r="K241">
-        <v>58044.39</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44295</v>
       </c>
@@ -8905,11 +8180,8 @@
       <c r="J242">
         <v>59.48</v>
       </c>
-      <c r="K242">
-        <v>59674.92</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44302</v>
       </c>
@@ -8940,11 +8212,8 @@
       <c r="J243">
         <v>59.61</v>
       </c>
-      <c r="K243">
-        <v>56291.89</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44309</v>
       </c>
@@ -8975,11 +8244,8 @@
       <c r="J244">
         <v>59.8</v>
       </c>
-      <c r="K244">
-        <v>48122.239999999998</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44316</v>
       </c>
@@ -9010,11 +8276,8 @@
       <c r="J245">
         <v>59.73</v>
       </c>
-      <c r="K245">
-        <v>57042.239999999998</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44323</v>
       </c>
@@ -9045,11 +8308,8 @@
       <c r="J246">
         <v>59.89</v>
       </c>
-      <c r="K246">
-        <v>57931.38</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44330</v>
       </c>
@@ -9080,11 +8340,8 @@
       <c r="J247">
         <v>59.78</v>
       </c>
-      <c r="K247">
-        <v>44098.92</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44337</v>
       </c>
@@ -9115,11 +8372,8 @@
       <c r="J248">
         <v>59.78</v>
       </c>
-      <c r="K248">
-        <v>33700.550000000003</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44344</v>
       </c>
@@ -9150,11 +8404,8 @@
       <c r="J249">
         <v>59.96</v>
       </c>
-      <c r="K249">
-        <v>36081.089999999997</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44351</v>
       </c>
@@ -9185,11 +8436,8 @@
       <c r="J250">
         <v>60.01</v>
       </c>
-      <c r="K250">
-        <v>35978.699999999997</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44358</v>
       </c>
@@ -9220,11 +8468,8 @@
       <c r="J251">
         <v>60.45</v>
       </c>
-      <c r="K251">
-        <v>39260.32</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44365</v>
       </c>
@@ -9255,11 +8500,8 @@
       <c r="J252">
         <v>60.39</v>
       </c>
-      <c r="K252">
-        <v>35823.29</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44372</v>
       </c>
@@ -9290,11 +8532,8 @@
       <c r="J253">
         <v>60.24</v>
       </c>
-      <c r="K253">
-        <v>32635.759999999998</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44379</v>
       </c>
@@ -9325,11 +8564,8 @@
       <c r="J254">
         <v>60.49</v>
       </c>
-      <c r="K254">
-        <v>35547.25</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44386</v>
       </c>
@@ -9360,11 +8596,8 @@
       <c r="J255">
         <v>60.67</v>
       </c>
-      <c r="K255">
-        <v>33854.300000000003</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44393</v>
       </c>
@@ -9395,11 +8628,8 @@
       <c r="J256">
         <v>60.76</v>
       </c>
-      <c r="K256">
-        <v>31652.45</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44400</v>
       </c>
@@ -9430,11 +8660,8 @@
       <c r="J257">
         <v>60.97</v>
       </c>
-      <c r="K257">
-        <v>34483.199999999997</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44407</v>
       </c>
@@ -9465,11 +8692,8 @@
       <c r="J258">
         <v>61.1</v>
       </c>
-      <c r="K258">
-        <v>41268.06</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44414</v>
       </c>
@@ -9500,11 +8724,8 @@
       <c r="J259">
         <v>60.7</v>
       </c>
-      <c r="K259">
-        <v>43867.4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44421</v>
       </c>
@@ -9535,11 +8756,8 @@
       <c r="J260">
         <v>60.78</v>
       </c>
-      <c r="K260">
-        <v>46718.33</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44428</v>
       </c>
@@ -9570,11 +8788,8 @@
       <c r="J261">
         <v>60.79</v>
       </c>
-      <c r="K261">
-        <v>48414.22</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44435</v>
       </c>
@@ -9605,11 +8820,8 @@
       <c r="J262">
         <v>60.79</v>
       </c>
-      <c r="K262">
-        <v>48925.24</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44442</v>
       </c>
@@ -9640,11 +8852,8 @@
       <c r="J263">
         <v>60.71</v>
       </c>
-      <c r="K263">
-        <v>51668.21</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44449</v>
       </c>
@@ -9675,11 +8884,8 @@
       <c r="J264">
         <v>60.71</v>
       </c>
-      <c r="K264">
-        <v>45089.47</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44456</v>
       </c>
@@ -9710,11 +8916,8 @@
       <c r="J265">
         <v>60.63</v>
       </c>
-      <c r="K265">
-        <v>47601.08</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44463</v>
       </c>
@@ -9745,11 +8948,8 @@
       <c r="J266">
         <v>60.46</v>
       </c>
-      <c r="K266">
-        <v>43651.76</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44470</v>
       </c>
@@ -9780,11 +8980,8 @@
       <c r="J267">
         <v>60.23</v>
       </c>
-      <c r="K267">
-        <v>48464.31</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44477</v>
       </c>
@@ -9815,11 +9012,8 @@
       <c r="J268">
         <v>59.66</v>
       </c>
-      <c r="K268">
-        <v>55435.21</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44484</v>
       </c>
@@ -9850,11 +9044,8 @@
       <c r="J269">
         <v>59.84</v>
       </c>
-      <c r="K269">
-        <v>59400.14</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44491</v>
       </c>
@@ -9885,11 +9076,8 @@
       <c r="J270">
         <v>59.46</v>
       </c>
-      <c r="K270">
-        <v>61159.77</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44498</v>
       </c>
@@ -9920,11 +9108,8 @@
       <c r="J271">
         <v>59.71</v>
       </c>
-      <c r="K271">
-        <v>60975.98</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44505</v>
       </c>
@@ -9955,11 +9140,8 @@
       <c r="J272">
         <v>60.12</v>
       </c>
-      <c r="K272">
-        <v>62884.45</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44512</v>
       </c>
@@ -9990,11 +9172,8 @@
       <c r="J273">
         <v>59.54</v>
       </c>
-      <c r="K273">
-        <v>64336.55</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44519</v>
       </c>
@@ -10025,11 +9204,8 @@
       <c r="J274">
         <v>59.52</v>
       </c>
-      <c r="K274">
-        <v>59541.760000000002</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44526</v>
       </c>
@@ -10060,11 +9236,8 @@
       <c r="J275">
         <v>59.31</v>
       </c>
-      <c r="K275">
-        <v>56341.89</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44533</v>
       </c>
@@ -10095,11 +9268,8 @@
       <c r="J276">
         <v>59.53</v>
       </c>
-      <c r="K276">
-        <v>49229.81</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44540</v>
       </c>
@@ -10130,11 +9300,8 @@
       <c r="J277">
         <v>59.3</v>
       </c>
-      <c r="K277">
-        <v>49965.29</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44547</v>
       </c>
@@ -10165,11 +9332,8 @@
       <c r="J278">
         <v>59.42</v>
       </c>
-      <c r="K278">
-        <v>46741.79</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44554</v>
       </c>
@@ -10200,11 +9364,8 @@
       <c r="J279">
         <v>59.31</v>
       </c>
-      <c r="K279">
-        <v>50808.21</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44561</v>
       </c>
@@ -10235,11 +9396,8 @@
       <c r="J280">
         <v>59.27</v>
       </c>
-      <c r="K280">
-        <v>47028.52</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44568</v>
       </c>
@@ -10270,11 +9428,8 @@
       <c r="J281">
         <v>58.38</v>
       </c>
-      <c r="K281">
-        <v>42315.13</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44575</v>
       </c>
@@ -10305,11 +9460,8 @@
       <c r="J282">
         <v>58.21</v>
       </c>
-      <c r="K282">
-        <v>42982.400000000001</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44582</v>
       </c>
@@ -10340,11 +9492,8 @@
       <c r="J283">
         <v>58.09</v>
       </c>
-      <c r="K283">
-        <v>35364.47</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44589</v>
       </c>
@@ -10375,11 +9524,8 @@
       <c r="J284">
         <v>57.76</v>
       </c>
-      <c r="K284">
-        <v>37754.400000000001</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44596</v>
       </c>
@@ -10410,11 +9556,8 @@
       <c r="J285">
         <v>57.09</v>
       </c>
-      <c r="K285">
-        <v>41687.25</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44603</v>
       </c>
@@ -10445,11 +9588,8 @@
       <c r="J286">
         <v>56.85</v>
       </c>
-      <c r="K286">
-        <v>42228.76</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44610</v>
       </c>
@@ -10480,11 +9620,8 @@
       <c r="J287">
         <v>56.62</v>
       </c>
-      <c r="K287">
-        <v>38252.400000000001</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44617</v>
       </c>
@@ -10515,11 +9652,8 @@
       <c r="J288">
         <v>56.37</v>
       </c>
-      <c r="K288">
-        <v>37435.480000000003</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44624</v>
       </c>
@@ -10550,11 +9684,8 @@
       <c r="J289">
         <v>56.55</v>
       </c>
-      <c r="K289">
-        <v>39030.04</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44631</v>
       </c>
@@ -10585,11 +9716,8 @@
       <c r="J290">
         <v>55.27</v>
       </c>
-      <c r="K290">
-        <v>38687.43</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44638</v>
       </c>
@@ -10620,11 +9748,8 @@
       <c r="J291">
         <v>55.36</v>
       </c>
-      <c r="K291">
-        <v>41308.019999999997</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44645</v>
       </c>
@@ -10655,11 +9780,8 @@
       <c r="J292">
         <v>54.28</v>
       </c>
-      <c r="K292">
-        <v>46111.06</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44652</v>
       </c>
@@ -10690,11 +9812,8 @@
       <c r="J293">
         <v>54.72</v>
       </c>
-      <c r="K293">
-        <v>46387.63</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44659</v>
       </c>
@@ -10725,11 +9844,8 @@
       <c r="J294">
         <v>53.41</v>
       </c>
-      <c r="K294">
-        <v>43125.15</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44666</v>
       </c>
@@ -10760,11 +9876,8 @@
       <c r="J295">
         <v>53.14</v>
       </c>
-      <c r="K295">
-        <v>40273.089999999997</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44673</v>
       </c>
@@ -10795,11 +9908,8 @@
       <c r="J296">
         <v>52.36</v>
       </c>
-      <c r="K296">
-        <v>39515.9</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44680</v>
       </c>
@@ -10830,11 +9940,8 @@
       <c r="J297">
         <v>52.14</v>
       </c>
-      <c r="K297">
-        <v>38320.239999999998</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44687</v>
       </c>
@@ -10865,11 +9972,8 @@
       <c r="J298">
         <v>51.53</v>
       </c>
-      <c r="K298">
-        <v>34225.040000000001</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44694</v>
       </c>
@@ -10900,11 +10004,8 @@
       <c r="J299">
         <v>51.81</v>
       </c>
-      <c r="K299">
-        <v>31019.19</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44701</v>
       </c>
@@ -10935,11 +10036,8 @@
       <c r="J300">
         <v>52.1</v>
       </c>
-      <c r="K300">
-        <v>29907.98</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44708</v>
       </c>
@@ -10970,11 +10068,8 @@
       <c r="J301">
         <v>53.02</v>
       </c>
-      <c r="K301">
-        <v>29160.07</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44715</v>
       </c>
@@ -11005,11 +10100,8 @@
       <c r="J302">
         <v>52.17</v>
       </c>
-      <c r="K302">
-        <v>29925.66</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44722</v>
       </c>
@@ -11040,11 +10132,8 @@
       <c r="J303">
         <v>51.19</v>
       </c>
-      <c r="K303">
-        <v>27345.79</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44729</v>
       </c>
@@ -11075,11 +10164,8 @@
       <c r="J304">
         <v>50.69</v>
       </c>
-      <c r="K304">
-        <v>20607.54</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44736</v>
       </c>
@@ -11110,11 +10196,8 @@
       <c r="J305">
         <v>51.07</v>
       </c>
-      <c r="K305">
-        <v>21392.35</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44743</v>
       </c>
@@ -11145,11 +10228,8 @@
       <c r="J306">
         <v>51.49</v>
       </c>
-      <c r="K306">
-        <v>19420.48</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44750</v>
       </c>
@@ -11180,11 +10260,8 @@
       <c r="J307">
         <v>51.05</v>
       </c>
-      <c r="K307">
-        <v>20972.87</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44757</v>
       </c>
@@ -11215,11 +10292,8 @@
       <c r="J308">
         <v>51.53</v>
       </c>
-      <c r="K308">
-        <v>20930.580000000002</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44764</v>
       </c>
@@ -11250,11 +10324,8 @@
       <c r="J309">
         <v>52.18</v>
       </c>
-      <c r="K309">
-        <v>22723.53</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44771</v>
       </c>
@@ -11285,11 +10356,8 @@
       <c r="J310">
         <v>52.82</v>
       </c>
-      <c r="K310">
-        <v>23807.279999999999</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44778</v>
       </c>
@@ -11320,11 +10388,8 @@
       <c r="J311">
         <v>52.11</v>
       </c>
-      <c r="K311">
-        <v>23266.22</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44785</v>
       </c>
@@ -11355,11 +10420,8 @@
       <c r="J312">
         <v>52.63</v>
       </c>
-      <c r="K312">
-        <v>24322.799999999999</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44792</v>
       </c>
@@ -11390,11 +10452,8 @@
       <c r="J313">
         <v>51.82</v>
       </c>
-      <c r="K313">
-        <v>21474.5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44799</v>
       </c>
@@ -11425,11 +10484,8 @@
       <c r="J314">
         <v>51.54</v>
       </c>
-      <c r="K314">
-        <v>19989.13</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44806</v>
       </c>
@@ -11460,11 +10516,8 @@
       <c r="J315">
         <v>50.66</v>
       </c>
-      <c r="K315">
-        <v>19901.900000000001</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44813</v>
       </c>
@@ -11495,11 +10548,8 @@
       <c r="J316">
         <v>50.59</v>
       </c>
-      <c r="K316">
-        <v>21641.25</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44820</v>
       </c>
@@ -11530,11 +10580,8 @@
       <c r="J317">
         <v>50.09</v>
       </c>
-      <c r="K317">
-        <v>19721.88</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44827</v>
       </c>
@@ -11565,11 +10612,8 @@
       <c r="J318">
         <v>49.05</v>
       </c>
-      <c r="K318">
-        <v>18903.75</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44834</v>
       </c>
@@ -11600,11 +10644,8 @@
       <c r="J319">
         <v>48.28</v>
       </c>
-      <c r="K319">
-        <v>19234.63</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44841</v>
       </c>
@@ -11635,11 +10676,8 @@
       <c r="J320">
         <v>48.15</v>
       </c>
-      <c r="K320">
-        <v>19485.5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44848</v>
       </c>
@@ -11670,11 +10708,8 @@
       <c r="J321">
         <v>47.42</v>
       </c>
-      <c r="K321">
-        <v>19332.84</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44855</v>
       </c>
@@ -11705,11 +10740,8 @@
       <c r="J322">
         <v>47.21</v>
       </c>
-      <c r="K322">
-        <v>19497.580000000002</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44862</v>
       </c>
@@ -11740,11 +10772,8 @@
       <c r="J323">
         <v>48.08</v>
       </c>
-      <c r="K323">
-        <v>20689.77</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44869</v>
       </c>
@@ -11775,11 +10804,8 @@
       <c r="J324">
         <v>47.73</v>
       </c>
-      <c r="K324">
-        <v>21128.93</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44876</v>
       </c>
@@ -11810,11 +10836,8 @@
       <c r="J325">
         <v>49.18</v>
       </c>
-      <c r="K325">
-        <v>16365.81</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44883</v>
       </c>
@@ -11845,11 +10868,8 @@
       <c r="J326">
         <v>49.37</v>
       </c>
-      <c r="K326">
-        <v>16253.33</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44890</v>
       </c>
@@ -11880,11 +10900,8 @@
       <c r="J327">
         <v>49.97</v>
       </c>
-      <c r="K327">
-        <v>16571.89</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44897</v>
       </c>
@@ -11915,11 +10932,8 @@
       <c r="J328">
         <v>50.61</v>
       </c>
-      <c r="K328">
-        <v>17114.59</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44904</v>
       </c>
@@ -11950,11 +10964,8 @@
       <c r="J329">
         <v>50.33</v>
       </c>
-      <c r="K329">
-        <v>17115.37</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44911</v>
       </c>
@@ -11985,11 +10996,8 @@
       <c r="J330">
         <v>50.6</v>
       </c>
-      <c r="K330">
-        <v>16753.05</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44918</v>
       </c>
@@ -12020,11 +11028,8 @@
       <c r="J331">
         <v>50.03</v>
       </c>
-      <c r="K331">
-        <v>16830.25</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44925</v>
       </c>
@@ -12055,11 +11060,8 @@
       <c r="J332">
         <v>49.51</v>
       </c>
-      <c r="K332">
-        <v>16602.63</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44932</v>
       </c>
@@ -12090,11 +11092,8 @@
       <c r="J333">
         <v>50.63</v>
       </c>
-      <c r="K333">
-        <v>16956.66</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44939</v>
       </c>
@@ -12125,11 +11124,8 @@
       <c r="J334">
         <v>51.2</v>
       </c>
-      <c r="K334">
-        <v>20906.28</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44946</v>
       </c>
@@ -12160,11 +11156,8 @@
       <c r="J335">
         <v>51.4</v>
       </c>
-      <c r="K335">
-        <v>22591.84</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44953</v>
       </c>
@@ -12195,11 +11188,8 @@
       <c r="J336">
         <v>51.45</v>
       </c>
-      <c r="K336">
-        <v>23797.16</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44960</v>
       </c>
@@ -12230,11 +11220,8 @@
       <c r="J337">
         <v>51.5</v>
       </c>
-      <c r="K337">
-        <v>22903.119999999999</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44967</v>
       </c>
@@ -12265,11 +11252,8 @@
       <c r="J338">
         <v>50.56</v>
       </c>
-      <c r="K338">
-        <v>21741.45</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44974</v>
       </c>
@@ -12300,11 +11284,8 @@
       <c r="J339">
         <v>50.27</v>
       </c>
-      <c r="K339">
-        <v>24546.639999999999</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44981</v>
       </c>
@@ -12335,11 +11316,8 @@
       <c r="J340">
         <v>49.77</v>
       </c>
-      <c r="K340">
-        <v>23560.84</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44988</v>
       </c>
@@ -12370,11 +11348,8 @@
       <c r="J341">
         <v>49.78</v>
       </c>
-      <c r="K341">
-        <v>22485.95</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44995</v>
       </c>
@@ -12405,11 +11380,8 @@
       <c r="J342">
         <v>50.05</v>
       </c>
-      <c r="K342">
-        <v>21491.18</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>45002</v>
       </c>
@@ -12440,11 +11412,8 @@
       <c r="J343">
         <v>50.6</v>
       </c>
-      <c r="K343">
-        <v>27974.84</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>45009</v>
       </c>
@@ -12475,11 +11444,8 @@
       <c r="J344">
         <v>51.36</v>
       </c>
-      <c r="K344">
-        <v>27806.41</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>45016</v>
       </c>
@@ -12510,11 +11476,8 @@
       <c r="J345">
         <v>51.28</v>
       </c>
-      <c r="K345">
-        <v>28076.92</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>45023</v>
       </c>
@@ -12545,11 +11508,8 @@
       <c r="J346">
         <v>51.6</v>
       </c>
-      <c r="K346">
-        <v>28136.46</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>45030</v>
       </c>
@@ -12580,11 +11540,8 @@
       <c r="J347">
         <v>51.27</v>
       </c>
-      <c r="K347">
-        <v>30361</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>45037</v>
       </c>
@@ -12615,11 +11572,8 @@
       <c r="J348">
         <v>51.05</v>
       </c>
-      <c r="K348">
-        <v>27508.33</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>45044</v>
       </c>
@@ -12650,11 +11604,8 @@
       <c r="J349">
         <v>51.5</v>
       </c>
-      <c r="K349">
-        <v>29347.96</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>45051</v>
       </c>
@@ -12685,11 +11636,8 @@
       <c r="J350">
         <v>51.13</v>
       </c>
-      <c r="K350">
-        <v>28953.02</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>45058</v>
       </c>
@@ -12720,11 +11668,8 @@
       <c r="J351">
         <v>51.03</v>
       </c>
-      <c r="K351">
-        <v>26952.65</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>45065</v>
       </c>
@@ -12755,11 +11700,8 @@
       <c r="J352">
         <v>50.4</v>
       </c>
-      <c r="K352">
-        <v>26851.07</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>45072</v>
       </c>
@@ -12790,11 +11732,8 @@
       <c r="J353">
         <v>50.24</v>
       </c>
-      <c r="K353">
-        <v>27564.04</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>45079</v>
       </c>
@@ -12825,11 +11764,8 @@
       <c r="J354">
         <v>50.51</v>
       </c>
-      <c r="K354">
-        <v>27249.75</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>45086</v>
       </c>
@@ -12860,11 +11796,8 @@
       <c r="J355">
         <v>50.25</v>
       </c>
-      <c r="K355">
-        <v>26135.88</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>45093</v>
       </c>
@@ -12895,11 +11828,8 @@
       <c r="J356">
         <v>50.45</v>
       </c>
-      <c r="K356">
-        <v>26472</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>45100</v>
       </c>
@@ -12930,11 +11860,8 @@
       <c r="J357">
         <v>50.47</v>
       </c>
-      <c r="K357">
-        <v>30383.360000000001</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>45107</v>
       </c>
@@ -12965,11 +11892,8 @@
       <c r="J358">
         <v>50.57</v>
       </c>
-      <c r="K358">
-        <v>30592.26</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>45114</v>
       </c>
@@ -13000,11 +11924,8 @@
       <c r="J359">
         <v>49.61</v>
       </c>
-      <c r="K359">
-        <v>30201.16</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>45121</v>
       </c>
@@ -13035,11 +11956,8 @@
       <c r="J360">
         <v>50.48</v>
       </c>
-      <c r="K360">
-        <v>30287.41</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>45128</v>
       </c>
@@ -13070,11 +11988,8 @@
       <c r="J361">
         <v>50.63</v>
       </c>
-      <c r="K361">
-        <v>30144.880000000001</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>45135</v>
       </c>
@@ -13105,11 +12020,8 @@
       <c r="J362">
         <v>50.52</v>
       </c>
-      <c r="K362">
-        <v>29271.19</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>45142</v>
       </c>
@@ -13140,11 +12052,8 @@
       <c r="J363">
         <v>50.1</v>
       </c>
-      <c r="K363">
-        <v>29095.63</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>45149</v>
       </c>
@@ -13175,11 +12084,8 @@
       <c r="J364">
         <v>49.76</v>
       </c>
-      <c r="K364">
-        <v>29403.99</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>45156</v>
       </c>
@@ -13210,11 +12116,8 @@
       <c r="J365">
         <v>49.44</v>
       </c>
-      <c r="K365">
-        <v>26233.05</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>45163</v>
       </c>
@@ -13245,11 +12148,8 @@
       <c r="J366">
         <v>49.58</v>
       </c>
-      <c r="K366">
-        <v>26083.84</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>45170</v>
       </c>
@@ -13280,11 +12180,8 @@
       <c r="J367">
         <v>49.72</v>
       </c>
-      <c r="K367">
-        <v>26045.85</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>45177</v>
       </c>
@@ -13315,11 +12212,8 @@
       <c r="J368">
         <v>49.53</v>
       </c>
-      <c r="K368">
-        <v>25818.2</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>45184</v>
       </c>
@@ -13349,9 +12243,6 @@
       </c>
       <c r="J369">
         <v>49.4</v>
-      </c>
-      <c r="K369">
-        <v>26446.9</v>
       </c>
     </row>
   </sheetData>
